--- a/AmtrakBugReports.xlsx
+++ b/AmtrakBugReports.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C64F6-D41E-457C-9D87-AE8E7B66645A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD16EE26-AC70-4285-90BC-04C802056D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,13 +471,6 @@
     <t>Error message is shown if double name use in "First Name" field at the registration form</t>
   </si>
   <si>
-    <t>1. Open https://www...
-2. Select "Join"
-3. Tipe "Arthur-Milles" (double name) in the "First Name" field
-4. Fill in other required fields
-5. Select "Join" button</t>
-  </si>
-  <si>
     <t>New account created</t>
   </si>
   <si>
@@ -543,6 +536,13 @@
   </si>
   <si>
     <t>Attachment</t>
+  </si>
+  <si>
+    <t>1. Open https://www...
+2. Select "Join"
+3. Type "Arthur-Milles" (double name) in the "First Name" field
+4. Fill in other required fields
+5. Select "Join" button</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,8 +2197,8 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,8 +2236,8 @@
       <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>142</v>
+      <c r="H1" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2262,7 +2262,7 @@
       <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -2286,7 +2286,7 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2310,7 +2310,7 @@
       <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -2334,7 +2334,7 @@
       <c r="G5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2358,7 +2358,7 @@
       <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -2382,7 +2382,7 @@
       <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2406,7 +2406,7 @@
       <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -2430,7 +2430,7 @@
       <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -2454,7 +2454,7 @@
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -2478,7 +2478,7 @@
       <c r="G11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -2502,7 +2502,7 @@
       <c r="G12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -2526,7 +2526,7 @@
       <c r="G13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -2550,7 +2550,7 @@
       <c r="G14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -2574,7 +2574,7 @@
       <c r="G15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
@@ -2598,7 +2598,7 @@
       <c r="G16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -2718,7 +2718,7 @@
       <c r="G21" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
@@ -2742,7 +2742,7 @@
       <c r="G22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
@@ -2766,7 +2766,7 @@
       <c r="G23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="303.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -2992,13 +2992,13 @@
         <v>123</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>51</v>
@@ -3013,16 +3013,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>51</v>
@@ -3037,16 +3037,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>96</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>51</v>
@@ -3061,16 +3061,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>51</v>
@@ -3085,16 +3085,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>26</v>
